--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_23.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1264350.561141732</v>
+        <v>1339880.230806537</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>75.00805541854486</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>111.5804705304104</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -820,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>121.0252690996995</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>7.411050579298081</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>389.6734072801183</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>121.4980671308162</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>45.70312489655948</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>30.60408762095413</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>288.1487663488469</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>290.5081575871953</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>97.81413504398203</v>
       </c>
       <c r="S10" t="n">
-        <v>49.19354258233951</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>41.92656778835364</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>33.35146980185857</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>122.2151751544596</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>73.15399090558796</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>106.5332566318395</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>122.65197883716</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>174.3062600431781</v>
       </c>
     </row>
     <row r="23">
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>57.64843562452423</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002183</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2728,10 +2730,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>66.14085215535448</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>27.9961457482726</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>102.0005969012859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.12580423844415</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2965,10 +2967,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,13 +3006,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>101.2898147863504</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520993</v>
+        <v>63.1779444490595</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>86.17363552701741</v>
+        <v>46.64213257536661</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -3481,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>158.8593983033576</v>
+        <v>132.5906791667248</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3721,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3907,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>85.59161276455715</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>250.0068403603052</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.5906791667248</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4201,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>64.34190763938388</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2134.371763268271</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C2" t="n">
-        <v>1765.409246327859</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>1407.143547721108</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>1021.355295122864</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>610.3693903332567</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4340,7 +4342,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2310.778188530465</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>1979.715301186894</v>
       </c>
       <c r="W2" t="n">
-        <v>2520.971603332393</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="X2" t="n">
-        <v>2520.971603332393</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y2" t="n">
-        <v>2520.971603332393</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4412,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9284171545819</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545819</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545819</v>
+        <v>548.5954256477206</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>548.5954256477206</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>548.5954256477206</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>379.595625386053</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>221.8472528185832</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>691.2261553839975</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>691.2261553839975</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>463.9179680525992</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>463.9179680525992</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>463.9179680525992</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>463.9179680525992</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9284171545819</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.9284171545819</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1525.74665604171</v>
+        <v>1701.775251950352</v>
       </c>
       <c r="C5" t="n">
-        <v>1525.74665604171</v>
+        <v>1332.81273500994</v>
       </c>
       <c r="D5" t="n">
-        <v>1167.480957434959</v>
+        <v>1332.81273500994</v>
       </c>
       <c r="E5" t="n">
-        <v>781.6927048367149</v>
+        <v>1332.81273500994</v>
       </c>
       <c r="F5" t="n">
-        <v>774.7472040875115</v>
+        <v>921.8268302203326</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>503.8630221185194</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>176.6683021545223</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>2088.375092014473</v>
       </c>
     </row>
     <row r="6">
@@ -4659,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>698.7120650600561</v>
+        <v>295.8809182883532</v>
       </c>
       <c r="C7" t="n">
-        <v>529.7758821321493</v>
+        <v>295.8809182883532</v>
       </c>
       <c r="D7" t="n">
-        <v>379.6592427198135</v>
+        <v>145.7642788760175</v>
       </c>
       <c r="E7" t="n">
-        <v>231.7461491374204</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>84.85620163951003</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4749,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>295.8809182883532</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>295.8809182883532</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600561</v>
+        <v>295.8809182883532</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600561</v>
+        <v>295.8809182883532</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1859.412473230863</v>
+        <v>1995.909162857191</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4826,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V8" t="n">
-        <v>2212.181128500977</v>
+        <v>2348.677818127306</v>
       </c>
       <c r="W8" t="n">
-        <v>1859.412473230863</v>
+        <v>1995.909162857191</v>
       </c>
       <c r="X8" t="n">
-        <v>1859.412473230863</v>
+        <v>1995.909162857191</v>
       </c>
       <c r="Y8" t="n">
-        <v>1859.412473230863</v>
+        <v>1995.909162857191</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>359.6044479702274</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C10" t="n">
-        <v>359.6044479702274</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D10" t="n">
-        <v>359.6044479702274</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4984,28 +4986,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>599.9099084499733</v>
       </c>
       <c r="S10" t="n">
-        <v>649.021618007188</v>
+        <v>599.9099084499733</v>
       </c>
       <c r="T10" t="n">
-        <v>649.021618007188</v>
+        <v>599.9099084499733</v>
       </c>
       <c r="U10" t="n">
-        <v>649.021618007188</v>
+        <v>599.9099084499733</v>
       </c>
       <c r="V10" t="n">
-        <v>649.021618007188</v>
+        <v>599.9099084499733</v>
       </c>
       <c r="W10" t="n">
-        <v>359.6044479702274</v>
+        <v>599.9099084499733</v>
       </c>
       <c r="X10" t="n">
-        <v>359.6044479702274</v>
+        <v>371.9203575519559</v>
       </c>
       <c r="Y10" t="n">
-        <v>359.6044479702274</v>
+        <v>371.9203575519559</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5075,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5127,7 +5129,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
         <v>1558.376451307619</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>130.9054447954965</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C13" t="n">
-        <v>130.9054447954965</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D13" t="n">
-        <v>130.9054447954965</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E13" t="n">
-        <v>130.9054447954965</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F13" t="n">
-        <v>130.9054447954965</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="G13" t="n">
-        <v>130.9054447954965</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>130.9054447954965</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5221,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>675.007103038344</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>420.3226148324571</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W13" t="n">
-        <v>130.9054447954965</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X13" t="n">
-        <v>130.9054447954965</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.9054447954965</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5260,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5294,10 +5296,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1096.475226584133</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>927.5390436562259</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>777.4224042438901</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>629.509310661497</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>482.6193631635866</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>1498.916270557902</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.123691414372</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2722.685770247095</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>2969.450898153559</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>3276.77103143352</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>917.0640635030462</v>
+        <v>668.5656656016674</v>
       </c>
       <c r="C19" t="n">
-        <v>748.1278805751393</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="D19" t="n">
-        <v>748.1278805751393</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>351.7163890913674</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>204.8264415934571</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>204.8264415934571</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>204.8264415934571</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1098.712528333286</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>1098.712528333286</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W19" t="n">
-        <v>1098.712528333286</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X19" t="n">
-        <v>1098.712528333286</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y19" t="n">
-        <v>1098.712528333286</v>
+        <v>850.2141304319072</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5786,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>4503.139178847509</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>4334.202995919602</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>4184.086356507267</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>4036.173262924874</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>3889.283315426963</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>3721.107993746784</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="X22" t="n">
-        <v>441.900558318119</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="Y22" t="n">
-        <v>221.1079791745888</v>
+        <v>4684.787643677749</v>
       </c>
     </row>
     <row r="23">
@@ -5978,10 +5980,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028562</v>
@@ -5990,22 +5992,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>3443.999848753677</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>3751.319982033639</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>4081.182609697671</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>4360.722674916368</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>4565.745155698578</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.685527502827</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V25" t="n">
-        <v>1186.00103929694</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="W25" t="n">
-        <v>896.5838692599799</v>
+        <v>3803.838860774509</v>
       </c>
       <c r="X25" t="n">
-        <v>668.5943183619626</v>
+        <v>3575.849309876492</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.8017392184324</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="26">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6215,34 +6217,34 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.627437207831</v>
@@ -6251,25 +6253,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>498.9056400965593</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>745.6707680030233</v>
       </c>
       <c r="M27" t="n">
-        <v>1595.645765494011</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1925.508393158044</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>2205.048458376741</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2410.070939158951</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4091.069939605066</v>
+        <v>4458.413529040524</v>
       </c>
       <c r="C28" t="n">
-        <v>3922.133756677159</v>
+        <v>4289.477346112617</v>
       </c>
       <c r="D28" t="n">
-        <v>3922.133756677159</v>
+        <v>4139.360706700281</v>
       </c>
       <c r="E28" t="n">
-        <v>3774.220663094766</v>
+        <v>3991.447613117888</v>
       </c>
       <c r="F28" t="n">
-        <v>3627.330715596856</v>
+        <v>3844.557665619978</v>
       </c>
       <c r="G28" t="n">
-        <v>3459.155393916677</v>
+        <v>3676.382343939798</v>
       </c>
       <c r="H28" t="n">
-        <v>3459.155393916677</v>
+        <v>3525.964335487742</v>
       </c>
       <c r="I28" t="n">
         <v>3459.155393916677</v>
@@ -6406,28 +6408,28 @@
         <v>4860.854573014293</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T28" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U28" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="V28" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="W28" t="n">
-        <v>4721.500534476853</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="X28" t="n">
-        <v>4493.510983578836</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="Y28" t="n">
-        <v>4272.718404435306</v>
+        <v>4640.061993870763</v>
       </c>
     </row>
     <row r="29">
@@ -6443,55 +6445,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,34 +6530,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.607977814708</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>659.373105721172</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011336</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1771.104817265284</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2050.644882483981</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.200876391121</v>
+        <v>738.7219969042602</v>
       </c>
       <c r="C31" t="n">
-        <v>972.2646934632137</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D31" t="n">
-        <v>822.1480540508779</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E31" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6652,19 +6654,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W31" t="n">
-        <v>1244.231782352015</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X31" t="n">
-        <v>1244.231782352015</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="Y31" t="n">
-        <v>1244.231782352015</v>
+        <v>920.3704617344999</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6692,43 +6694,43 @@
         <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6743,7 +6745,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6765,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2413.343925613455</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3459.155393916675</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C34" t="n">
-        <v>3459.155393916675</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D34" t="n">
-        <v>3459.155393916675</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E34" t="n">
-        <v>3459.155393916675</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F34" t="n">
-        <v>3459.155393916675</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G34" t="n">
-        <v>3459.155393916675</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.859459491669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281175</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>4036.945405494733</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V34" t="n">
-        <v>3782.260917288846</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W34" t="n">
-        <v>3679.947973060209</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X34" t="n">
-        <v>3679.947973060209</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y34" t="n">
-        <v>3459.155393916675</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,28 +6922,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6971,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7020,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7069,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>799.8610847926847</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="C37" t="n">
-        <v>799.8610847926847</v>
+        <v>444.8650045523214</v>
       </c>
       <c r="D37" t="n">
-        <v>649.7444453803489</v>
+        <v>294.7483651399856</v>
       </c>
       <c r="E37" t="n">
-        <v>562.7003690904323</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F37" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G37" t="n">
         <v>247.6350999123426</v>
@@ -7129,16 +7131,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>1209.499100520942</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X37" t="n">
-        <v>981.5095496229244</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y37" t="n">
-        <v>981.5095496229244</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,40 +7159,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7208,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>410.874530133163</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1024.771599890052</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3627.330715596855</v>
+        <v>1141.200876391121</v>
       </c>
       <c r="C40" t="n">
-        <v>3627.330715596855</v>
+        <v>972.2646934632137</v>
       </c>
       <c r="D40" t="n">
-        <v>3627.330715596855</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E40" t="n">
-        <v>3627.330715596855</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F40" t="n">
-        <v>3627.330715596855</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916676</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916676</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4525.994054365623</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>4525.994054365623</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V40" t="n">
-        <v>4525.994054365623</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W40" t="n">
-        <v>4236.576884328662</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X40" t="n">
-        <v>4008.587333430645</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y40" t="n">
-        <v>3787.794754287115</v>
+        <v>1275.130855347408</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7400,19 +7402,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7430,10 +7432,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,19 +7444,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>485.4047026089419</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>732.1698305154059</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1039.489963795367</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>613.8011874802282</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7594,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>786.0822064765186</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>531.3977182706318</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>278.8655562905255</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="X43" t="n">
-        <v>278.8655562905255</v>
+        <v>1016.242231453998</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.8655562905255</v>
+        <v>795.449652310468</v>
       </c>
     </row>
     <row r="44">
@@ -7628,43 +7630,43 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7725,19 +7727,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>233.7852434110091</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>644.6755122555218</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619858</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O45" t="n">
         <v>1808.163466324677</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U46" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V46" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W46" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X46" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y46" t="n">
-        <v>1275.130855347408</v>
+        <v>1322.84934122136</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8307,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747169</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>73.53204524669889</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9252,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9404,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504502</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>124.3400780863232</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.4091825776738</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9893,7 +9895,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9954,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>87.16935584025379</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>127.6461250100647</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>73.53204524670059</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10440,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>124.3400780863228</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10668,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10680,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,13 +10901,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>124.340078086323</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445218</v>
@@ -11078,10 +11080,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>73.53204524670085</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11148,13 +11150,13 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11373,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>96.03744927814714</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,7 +11390,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>124.5670006750239</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>77.06777566241342</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>44.27839330891794</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23703,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>73.27997174098121</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>3.88598883243246</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>57.18000134477732</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24180,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>44.27839330891666</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24415,10 +24417,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>228.5889167740531</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>103.0576765518765</v>
       </c>
     </row>
     <row r="26">
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>44.2783933089175</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24661,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>258.5268525883184</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>77.83138328065138</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>139.1210168601837</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,13 +24894,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25072,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>185.2331835502406</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>155.4067089030353</v>
       </c>
     </row>
     <row r="35">
@@ -25312,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>60.26032711955176</v>
+        <v>99.79183007120255</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20.97258187857975</v>
+        <v>47.24130101521254</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25609,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25795,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>59.82943525837409</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>36.51615797628583</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.24130101521254</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26068,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -26089,7 +26091,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>154.2427457127109</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>954562.9802107741</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>954562.9802107741</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472099.017671963</v>
+      </c>
+      <c r="C2" t="n">
         <v>472099.0176719629</v>
       </c>
-      <c r="C2" t="n">
-        <v>472099.0176719631</v>
-      </c>
       <c r="D2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="F2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="G2" t="n">
         <v>449683.4186983653</v>
@@ -26341,19 +26343,19 @@
         <v>449683.4186983652</v>
       </c>
       <c r="L2" t="n">
-        <v>449683.418698365</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="M2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="O2" t="n">
+        <v>449683.4186983653</v>
+      </c>
+      <c r="P2" t="n">
         <v>449683.4186983652</v>
-      </c>
-      <c r="O2" t="n">
-        <v>449683.4186983654</v>
-      </c>
-      <c r="P2" t="n">
-        <v>449683.4186983653</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>183348.686857128</v>
+      </c>
+      <c r="C4" t="n">
         <v>183348.6868571279</v>
-      </c>
-      <c r="C4" t="n">
-        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="H4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="I4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="J4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="J4" t="n">
-        <v>36432.48351773397</v>
-      </c>
       <c r="K4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="L4" t="n">
         <v>36432.48351773394</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="N4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773397</v>
       </c>
       <c r="P4" t="n">
         <v>36432.48351773395</v>
@@ -26476,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26494,19 +26496,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384076.6264631189</v>
+        <v>-384076.6264631191</v>
       </c>
       <c r="C6" t="n">
-        <v>205891.2527514257</v>
+        <v>205891.2527514255</v>
       </c>
       <c r="D6" t="n">
-        <v>205891.2527514256</v>
+        <v>205891.2527514255</v>
       </c>
       <c r="E6" t="n">
-        <v>-203896.4272449816</v>
+        <v>-203896.4272449815</v>
       </c>
       <c r="F6" t="n">
-        <v>321263.6092319149</v>
+        <v>321263.6092319147</v>
       </c>
       <c r="G6" t="n">
         <v>321263.6092319147</v>
@@ -26540,28 +26542,28 @@
         <v>321263.6092319146</v>
       </c>
       <c r="I6" t="n">
-        <v>321263.6092319148</v>
+        <v>321263.6092319147</v>
       </c>
       <c r="J6" t="n">
         <v>144840.3900393216</v>
       </c>
       <c r="K6" t="n">
+        <v>321263.6092319146</v>
+      </c>
+      <c r="L6" t="n">
         <v>321263.6092319147</v>
-      </c>
-      <c r="L6" t="n">
-        <v>321263.6092319145</v>
       </c>
       <c r="M6" t="n">
         <v>186462.5939980774</v>
       </c>
       <c r="N6" t="n">
+        <v>321263.6092319147</v>
+      </c>
+      <c r="O6" t="n">
+        <v>321263.6092319147</v>
+      </c>
+      <c r="P6" t="n">
         <v>321263.6092319146</v>
-      </c>
-      <c r="O6" t="n">
-        <v>321263.6092319149</v>
-      </c>
-      <c r="P6" t="n">
-        <v>321263.6092319147</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,31 +26746,31 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>338.7761146022501</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>139.6436969778789</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27540,7 +27542,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>13.9403526926387</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>139.2541414008598</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>24.11076274067665</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>30.43324911404501</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,28 +27776,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>100.7308377500097</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>136.7057146380968</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,7 +27833,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,13 +27855,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>77.12412542216066</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>37.24410088293962</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,7 +28019,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28028,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853701</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>48.85105693617582</v>
       </c>
       <c r="S10" t="n">
-        <v>162.9519963676794</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,10 +28073,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32935,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34778,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35270,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35965,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>224.1074838346381</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,7 +36442,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336981</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36452,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36595,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36613,10 +36615,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>237.744794428193</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>215.6591577951388</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>280.6254601782252</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37002,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>212.353110871397</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37239,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37476,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37558,7 +37560,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502048</v>
@@ -37619,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>274.9155166742622</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594834</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37634,13 +37636,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
         <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37798,10 +37800,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37861,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>224.1074838346401</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
@@ -37868,13 +37870,13 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>137.9476282330538</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38108,7 +38110,7 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1339880.230806537</v>
+        <v>1332863.215914826</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>111.5804705304104</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>69.90866715955531</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -831,16 +831,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>153.369449566412</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>121.0252690996995</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>298.3540381929899</v>
       </c>
       <c r="I5" t="n">
-        <v>121.4980671308162</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>45.70312489655948</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>27.45797858609773</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>328.1405338925064</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>290.5081575871953</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>28.51033041214347</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>97.81413504398203</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,10 +1542,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>41.92656778835364</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>168.6781738227555</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1770,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>42.02510219382533</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>106.5332566318395</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>78.77251716083951</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>3.33414829660139</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>174.3062600431781</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>66.14085215535448</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>157.2425576766694</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>28.12580423844415</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>3.0094263875339</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>63.1779444490595</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3432,16 +3432,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>46.64213257536661</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>212.0917728165956</v>
       </c>
     </row>
     <row r="38">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.5906791667248</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>88.08354545359785</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3720,13 +3720,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>85.59161276455715</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>88.52416382797675</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>64.34190763938388</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1626.94664591678</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2310.778188530465</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1979.715301186894</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1626.94664591678</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="X2" t="n">
-        <v>1626.94664591678</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="Y2" t="n">
-        <v>1626.94664591678</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="3">
@@ -4400,34 +4400,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D4" t="n">
-        <v>548.5954256477206</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E4" t="n">
-        <v>548.5954256477206</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="F4" t="n">
-        <v>548.5954256477206</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="G4" t="n">
-        <v>379.595625386053</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H4" t="n">
-        <v>221.8472528185832</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1701.775251950352</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="C5" t="n">
-        <v>1332.81273500994</v>
+        <v>1723.514638661394</v>
       </c>
       <c r="D5" t="n">
-        <v>1332.81273500994</v>
+        <v>1723.514638661394</v>
       </c>
       <c r="E5" t="n">
-        <v>1332.81273500994</v>
+        <v>1337.72638606315</v>
       </c>
       <c r="F5" t="n">
-        <v>921.8268302203326</v>
+        <v>926.7404812735424</v>
       </c>
       <c r="G5" t="n">
-        <v>503.8630221185194</v>
+        <v>508.7766731717293</v>
       </c>
       <c r="H5" t="n">
-        <v>176.6683021545223</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.514423990285</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2478.514423990285</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.375092014473</v>
+        <v>2092.477155601806</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>295.8809182883532</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C7" t="n">
-        <v>295.8809182883532</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>145.7642788760175</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
         <v>99.59950625323012</v>
@@ -4749,28 +4749,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>295.8809182883532</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>295.8809182883532</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X7" t="n">
-        <v>295.8809182883532</v>
+        <v>670.9767331549069</v>
       </c>
       <c r="Y7" t="n">
-        <v>295.8809182883532</v>
+        <v>450.1841540113768</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.909162857191</v>
+        <v>768.2839875620907</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>399.321470621679</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.680947310029</v>
+        <v>399.321470621679</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117851</v>
+        <v>399.321470621679</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548715</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2348.677818127306</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>1995.909162857191</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>1995.909162857191</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y8" t="n">
-        <v>1995.909162857191</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4904,22 +4904,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>190.2718927217162</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C10" t="n">
-        <v>190.2718927217162</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>229.6312428658945</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>82.74129536798412</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>599.9099084499733</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>599.9099084499733</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>599.9099084499733</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>599.9099084499733</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>599.9099084499733</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>599.9099084499733</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>371.9203575519559</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>371.9203575519559</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>868.4856756861153</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="C13" t="n">
-        <v>699.5494927582084</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D13" t="n">
-        <v>549.4328533458727</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E13" t="n">
-        <v>401.5197597634796</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>401.5197597634796</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
         <v>208.7516828383384</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1217.459173359369</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1217.459173359369</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1217.459173359369</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557902</v>
+        <v>928.0420033224083</v>
       </c>
       <c r="X13" t="n">
-        <v>1270.926719659885</v>
+        <v>928.0420033224083</v>
       </c>
       <c r="Y13" t="n">
-        <v>1050.134140516355</v>
+        <v>707.2494241788781</v>
       </c>
     </row>
     <row r="14">
@@ -5260,28 +5260,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>287.5797832182601</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>139.666689635867</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>139.666689635867</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>668.5656656016674</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C19" t="n">
-        <v>499.6294826737605</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D19" t="n">
-        <v>499.6294826737605</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E19" t="n">
-        <v>351.7163890913674</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F19" t="n">
-        <v>204.8264415934571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>204.8264415934571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>204.8264415934571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1298.996260473455</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1298.996260473455</v>
+        <v>1130.219432619097</v>
       </c>
       <c r="W19" t="n">
-        <v>1298.996260473455</v>
+        <v>840.8022625821368</v>
       </c>
       <c r="X19" t="n">
-        <v>1071.006709575437</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="Y19" t="n">
-        <v>850.2141304319072</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5737,25 +5737,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,22 +5764,22 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5840,7 +5840,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4503.139178847509</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C22" t="n">
-        <v>4334.202995919602</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>4184.086356507267</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>4036.173262924874</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426963</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014292</v>
+        <v>1495.548443995679</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014292</v>
+        <v>1206.419805209237</v>
       </c>
       <c r="V22" t="n">
-        <v>4860.854573014292</v>
+        <v>951.73531700335</v>
       </c>
       <c r="W22" t="n">
-        <v>4860.854573014292</v>
+        <v>662.3181469663895</v>
       </c>
       <c r="X22" t="n">
-        <v>4860.854573014292</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="Y22" t="n">
-        <v>4684.787643677749</v>
+        <v>434.3285960683721</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,40 +5974,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>3443.999848753677</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>3751.319982033639</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>4081.182609697671</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>4360.722674916368</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>4565.745155698578</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4347.940519017357</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V25" t="n">
-        <v>4093.25603081147</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W25" t="n">
-        <v>3803.838860774509</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>3575.849309876492</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6302,16 +6302,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>498.9056400965593</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>745.6707680030233</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
         <v>1514.038914395485</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4458.413529040524</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>4289.477346112617</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>4139.360706700281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3991.447613117888</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3844.557665619978</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3676.382343939798</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3525.964335487742</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>4860.854573014293</v>
+        <v>1340.085404217832</v>
       </c>
       <c r="U28" t="n">
-        <v>4860.854573014293</v>
+        <v>1050.956765431391</v>
       </c>
       <c r="V28" t="n">
-        <v>4860.854573014293</v>
+        <v>796.2722772255036</v>
       </c>
       <c r="W28" t="n">
-        <v>4860.854573014293</v>
+        <v>506.8551071885429</v>
       </c>
       <c r="X28" t="n">
-        <v>4860.854573014293</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y28" t="n">
-        <v>4640.061993870763</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6442,40 +6442,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>738.7219969042602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6651,22 +6651,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>1209.787631771461</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>920.3704617344999</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>920.3704617344999</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>920.3704617344999</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,40 +6679,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6785,16 +6785,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1029.666285013068</v>
+        <v>545.1765965867977</v>
       </c>
       <c r="C34" t="n">
-        <v>860.7301020851612</v>
+        <v>545.1765965867977</v>
       </c>
       <c r="D34" t="n">
-        <v>710.6134626728254</v>
+        <v>395.0599571744619</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>247.1468635920688</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>100.2569160941585</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>1275.130855347408</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W34" t="n">
-        <v>1275.130855347408</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X34" t="n">
-        <v>1275.130855347408</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y34" t="n">
-        <v>1211.314749843308</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,28 +6922,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6979,10 +6979,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>613.8011874802282</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C37" t="n">
-        <v>444.8650045523214</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D37" t="n">
-        <v>294.7483651399856</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E37" t="n">
-        <v>247.6350999123426</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352015</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="W37" t="n">
-        <v>1244.231782352015</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="X37" t="n">
-        <v>1016.242231453998</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="Y37" t="n">
-        <v>795.449652310468</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="38">
@@ -7165,10 +7165,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028562</v>
@@ -7259,7 +7259,7 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1514.038914395485</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1141.200876391121</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C40" t="n">
-        <v>972.2646934632137</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>822.1480540508779</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1409.942992321945</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1186.157577111451</v>
       </c>
       <c r="U40" t="n">
-        <v>1275.130855347408</v>
+        <v>1186.157577111451</v>
       </c>
       <c r="V40" t="n">
-        <v>1275.130855347408</v>
+        <v>931.4730889055638</v>
       </c>
       <c r="W40" t="n">
-        <v>1275.130855347408</v>
+        <v>642.0559188686032</v>
       </c>
       <c r="X40" t="n">
-        <v>1275.130855347408</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="Y40" t="n">
-        <v>1275.130855347408</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="41">
@@ -7390,28 +7390,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514083</v>
@@ -7429,13 +7429,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,25 +7487,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>613.8011874802282</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C43" t="n">
-        <v>613.8011874802282</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>613.8011874802282</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>613.8011874802282</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1409.497923256916</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1185.712508046422</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="V43" t="n">
-        <v>1244.231782352015</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="W43" t="n">
-        <v>1244.231782352015</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X43" t="n">
-        <v>1016.242231453998</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y43" t="n">
-        <v>795.449652310468</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="44">
@@ -7627,46 +7627,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211721</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011336</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1296.555866665166</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1141.200876391121</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C46" t="n">
-        <v>972.2646934632137</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D46" t="n">
-        <v>822.1480540508779</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E46" t="n">
-        <v>674.2349604684848</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F46" t="n">
-        <v>527.3450129705744</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G46" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V46" t="n">
-        <v>1387.841167119728</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W46" t="n">
-        <v>1387.841167119728</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X46" t="n">
-        <v>1387.841167119728</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y46" t="n">
-        <v>1322.84934122136</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9406,7 +9406,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>449.5135334928325</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9722,7 +9722,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>288.4091825776738</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>87.16935584025379</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10907,10 +10907,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
         <v>288.4091825776757</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>96.03744927814716</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>234.4116509503169</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>124.5670006750239</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>52.86938723563372</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -23478,10 +23478,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>124.4684662695523</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23703,10 +23703,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>3.88598883243246</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>173.3651261629885</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>218.2134127617879</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.27839330891666</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>103.0576765518765</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>44.2783933089175</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>64.30500338171987</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>139.1210168601837</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24891,22 +24891,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.4841420758437</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>155.4067089030353</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25320,16 +25320,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>99.79183007120255</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25365,22 +25365,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>6.492880535499154</v>
       </c>
     </row>
     <row r="38">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.24130101521254</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>109.8372645300054</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,13 +25608,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>59.82943525837409</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,16 +25836,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>109.3966461556265</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>154.2427457127109</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719628</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719629</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="F2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="G2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="H2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
+        <v>449683.4186983654</v>
+      </c>
+      <c r="J2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="H2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>449683.4186983653</v>
-      </c>
-      <c r="J2" t="n">
-        <v>449683.4186983652</v>
-      </c>
-      <c r="K2" t="n">
-        <v>449683.4186983652</v>
       </c>
       <c r="L2" t="n">
         <v>449683.4186983653</v>
@@ -26349,13 +26349,13 @@
         <v>449683.4186983652</v>
       </c>
       <c r="N2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="O2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983653</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
@@ -26429,25 +26429,25 @@
         <v>36432.48351773395</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773397</v>
       </c>
       <c r="I4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="J4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="K4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="K4" t="n">
-        <v>36432.48351773394</v>
-      </c>
       <c r="L4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="M4" t="n">
         <v>36432.48351773395</v>
@@ -26456,10 +26456,10 @@
         <v>36432.48351773395</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773397</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26484,31 +26484,31 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26530,40 +26530,40 @@
         <v>205891.2527514255</v>
       </c>
       <c r="E6" t="n">
-        <v>-203896.4272449815</v>
+        <v>-204871.0185047031</v>
       </c>
       <c r="F6" t="n">
-        <v>321263.6092319147</v>
+        <v>320289.017972193</v>
       </c>
       <c r="G6" t="n">
-        <v>321263.6092319147</v>
+        <v>320289.017972193</v>
       </c>
       <c r="H6" t="n">
-        <v>321263.6092319146</v>
+        <v>320289.0179721931</v>
       </c>
       <c r="I6" t="n">
-        <v>321263.6092319147</v>
+        <v>320289.0179721932</v>
       </c>
       <c r="J6" t="n">
-        <v>144840.3900393216</v>
+        <v>143865.7987796002</v>
       </c>
       <c r="K6" t="n">
-        <v>321263.6092319146</v>
+        <v>320289.0179721931</v>
       </c>
       <c r="L6" t="n">
-        <v>321263.6092319147</v>
+        <v>320289.0179721931</v>
       </c>
       <c r="M6" t="n">
-        <v>186462.5939980774</v>
+        <v>185488.0027383559</v>
       </c>
       <c r="N6" t="n">
-        <v>321263.6092319147</v>
+        <v>320289.017972193</v>
       </c>
       <c r="O6" t="n">
-        <v>321263.6092319147</v>
+        <v>320289.0179721931</v>
       </c>
       <c r="P6" t="n">
-        <v>321263.6092319146</v>
+        <v>320289.0179721931</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26752,25 +26752,25 @@
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>139.6436969778789</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>279.3323015578577</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27551,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>13.94035269263892</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>13.9403526926387</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>25.56873457136726</v>
       </c>
       <c r="I5" t="n">
-        <v>30.43324911404501</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>100.7308377500097</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27794,7 +27794,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>198.2516768029394</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>78.73551184920507</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>37.24410088293962</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>16.68962877639353</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>48.85105693617582</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36442,7 +36442,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336981</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504662</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>237.744794428193</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>598.8335596281419</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37153,19 +37153,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,19 +37390,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37627,10 +37627,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>598.8335596281419</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37800,7 +37800,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349808</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>345.2951542341714</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38098,10 +38098,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38110,10 +38110,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>516.775353191425</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_23.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_5_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1332863.215914826</v>
+        <v>1337802.478763859</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>204.0813324860755</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>69.90866715955531</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -825,22 +825,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>75.20891053381759</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>153.369449566412</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>190.1523382618141</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>298.3540381929899</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,19 +1065,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>28.25293961294759</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>27.45797858609773</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,16 +1138,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>328.1405338925064</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>110.1458031968976</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,31 +1290,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>28.51033041214347</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>58.4224711922605</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>168.6781738227555</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1624,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>42.02510219382533</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1900,10 +1900,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>104.435614114766</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>78.77251716083951</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>3.33414829660139</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750035</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>157.2425576766694</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>246.6089050348013</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3201,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>3.0094263875339</v>
+        <v>155.8385935972305</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>77.43280114252508</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>212.0917728165956</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>88.08354545359785</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>22.37880854751335</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3799,7 +3799,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>88.52416382797675</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>148.3125470028955</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>107.5009259672063</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1591.868758816787</v>
+        <v>1860.708406770827</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>1491.745889830415</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1133.480191223665</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>747.6919386254203</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>740.7464378762169</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4363,19 +4363,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1591.868758816787</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X2" t="n">
-        <v>1591.868758816787</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y2" t="n">
-        <v>1591.868758816787</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,25 +4409,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600561</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600561</v>
+        <v>280.0282177315058</v>
       </c>
       <c r="D4" t="n">
-        <v>548.5954256477204</v>
+        <v>129.9115783191701</v>
       </c>
       <c r="E4" t="n">
-        <v>548.5954256477204</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>548.5954256477204</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600561</v>
+        <v>500.820796875036</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600561</v>
+        <v>280.0282177315058</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2092.477155601806</v>
+        <v>1372.955922978507</v>
       </c>
       <c r="C5" t="n">
-        <v>1723.514638661394</v>
+        <v>1003.993406038096</v>
       </c>
       <c r="D5" t="n">
-        <v>1723.514638661394</v>
+        <v>645.7277074313452</v>
       </c>
       <c r="E5" t="n">
-        <v>1337.72638606315</v>
+        <v>259.9394548331009</v>
       </c>
       <c r="F5" t="n">
-        <v>926.7404812735424</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>508.7766731717293</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>2092.477155601806</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y5" t="n">
-        <v>2092.477155601806</v>
+        <v>1759.555763042629</v>
       </c>
     </row>
     <row r="6">
@@ -4658,13 +4658,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.5356891811371</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>297.1376293562589</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>128.1378290945913</v>
       </c>
       <c r="H7" t="n">
         <v>99.59950625323012</v>
@@ -4761,16 +4761,16 @@
         <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600561</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600561</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="X7" t="n">
-        <v>670.9767331549069</v>
+        <v>444.0275768541693</v>
       </c>
       <c r="Y7" t="n">
-        <v>450.1841540113768</v>
+        <v>444.0275768541693</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>768.2839875620907</v>
+        <v>1689.203741822952</v>
       </c>
       <c r="C8" t="n">
-        <v>399.321470621679</v>
+        <v>1320.24122488254</v>
       </c>
       <c r="D8" t="n">
-        <v>399.321470621679</v>
+        <v>961.9755262757897</v>
       </c>
       <c r="E8" t="n">
-        <v>399.321470621679</v>
+        <v>576.1872736775454</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>165.2013688879378</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2212.181128500977</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>1881.118241157406</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W8" t="n">
-        <v>1528.349585887292</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="X8" t="n">
-        <v>1154.883827626212</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="Y8" t="n">
-        <v>1154.883827626212</v>
+        <v>2075.803581887074</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4904,22 +4904,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>546.4805193761945</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="C10" t="n">
-        <v>377.5443364482876</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="D10" t="n">
-        <v>377.5443364482876</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="E10" t="n">
-        <v>229.6312428658945</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F10" t="n">
-        <v>82.74129536798412</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G10" t="n">
-        <v>82.74129536798412</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H10" t="n">
-        <v>82.74129536798412</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>82.74129536798412</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>709.5665374816298</v>
       </c>
     </row>
     <row r="11">
@@ -5041,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>525.6009593486384</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="C13" t="n">
-        <v>356.6647764207315</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="D13" t="n">
-        <v>356.6647764207315</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>156.2296886241853</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1217.459173359369</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1217.459173359369</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V13" t="n">
-        <v>1217.459173359369</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W13" t="n">
-        <v>928.0420033224083</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X13" t="n">
-        <v>928.0420033224083</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y13" t="n">
-        <v>707.2494241788781</v>
+        <v>303.1196361220957</v>
       </c>
     </row>
     <row r="14">
@@ -5272,7 +5272,7 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5290,16 +5290,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5363,16 +5363,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>437.6964226305959</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C16" t="n">
-        <v>437.6964226305959</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D16" t="n">
-        <v>287.5797832182601</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E16" t="n">
-        <v>139.666689635867</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F16" t="n">
-        <v>139.666689635867</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5469,19 +5469,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V16" t="n">
-        <v>955.1031435655738</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W16" t="n">
-        <v>665.6859735286132</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X16" t="n">
-        <v>437.6964226305959</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y16" t="n">
-        <v>437.6964226305959</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="17">
@@ -5515,10 +5515,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5533,10 +5533,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>392.0201325405893</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C19" t="n">
-        <v>392.0201325405893</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5709,16 +5709,16 @@
         <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>1130.219432619097</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>840.8022625821368</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>612.8127116841194</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y19" t="n">
-        <v>392.0201325405893</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="20">
@@ -5740,46 +5740,46 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>434.3285960683721</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5940,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1495.548443995679</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1206.419805209237</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>951.73531700335</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>662.3181469663895</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X22" t="n">
-        <v>434.3285960683721</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y22" t="n">
-        <v>434.3285960683721</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,40 +5974,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6025,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,7 +6065,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,22 +6214,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6244,10 +6244,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6314,13 +6314,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1340.085404217832</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U28" t="n">
-        <v>1050.956765431391</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V28" t="n">
-        <v>796.2722772255036</v>
+        <v>849.6126242577293</v>
       </c>
       <c r="W28" t="n">
-        <v>506.8551071885429</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="X28" t="n">
-        <v>278.8655562905255</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="Y28" t="n">
-        <v>278.8655562905255</v>
+        <v>560.1954542207687</v>
       </c>
     </row>
     <row r="29">
@@ -6454,19 +6454,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6648,22 +6648,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1090.100879744681</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>835.416391538794</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>545.9992215018333</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
         <v>97.21709146028584</v>
@@ -6691,19 +6691,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,7 +6718,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6785,16 +6785,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>545.1765965867977</v>
+        <v>868.4856756861153</v>
       </c>
       <c r="C34" t="n">
-        <v>545.1765965867977</v>
+        <v>699.5494927582084</v>
       </c>
       <c r="D34" t="n">
-        <v>395.0599571744619</v>
+        <v>549.4328533458727</v>
       </c>
       <c r="E34" t="n">
-        <v>247.1468635920688</v>
+        <v>401.5197597634796</v>
       </c>
       <c r="F34" t="n">
-        <v>100.2569160941585</v>
+        <v>254.6298122655692</v>
       </c>
       <c r="G34" t="n">
         <v>97.21709146028584</v>
@@ -6894,16 +6894,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>954.8146123150548</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X34" t="n">
-        <v>726.8250614170374</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y34" t="n">
-        <v>726.8250614170374</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6940,25 +6940,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6970,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7022,16 +7022,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>879.2482765610114</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C37" t="n">
-        <v>710.3120936331045</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D37" t="n">
         <v>560.1954542207687</v>
@@ -7125,22 +7125,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1420.701319908887</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347408</v>
+        <v>1131.572681122445</v>
       </c>
       <c r="V37" t="n">
-        <v>1275.130855347408</v>
+        <v>1131.572681122445</v>
       </c>
       <c r="W37" t="n">
-        <v>1275.130855347408</v>
+        <v>1131.572681122445</v>
       </c>
       <c r="X37" t="n">
-        <v>1275.130855347408</v>
+        <v>1131.572681122445</v>
       </c>
       <c r="Y37" t="n">
-        <v>1060.896741391251</v>
+        <v>910.7801019789154</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7159,40 +7159,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7216,10 +7216,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7262,13 +7262,13 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>414.0663679705859</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C40" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1409.942992321945</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1186.157577111451</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1186.157577111451</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>931.4730889055638</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W40" t="n">
-        <v>642.0559188686032</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X40" t="n">
-        <v>414.0663679705859</v>
+        <v>963.3973594422661</v>
       </c>
       <c r="Y40" t="n">
-        <v>414.0663679705859</v>
+        <v>742.6047802987359</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,25 +7396,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,10 +7429,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1409.497923256916</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1185.712508046422</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>896.5838692599799</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V43" t="n">
-        <v>896.5838692599799</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W43" t="n">
-        <v>896.5838692599799</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X43" t="n">
-        <v>668.5943183619626</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.8017392184324</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="44">
@@ -7651,25 +7651,25 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>213.9110074201016</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C46" t="n">
-        <v>213.9110074201016</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D46" t="n">
-        <v>213.9110074201016</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>986.0022165609664</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V46" t="n">
-        <v>731.3177283550796</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="W46" t="n">
-        <v>441.900558318119</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="X46" t="n">
-        <v>213.9110074201016</v>
+        <v>966.6240513566914</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.9110074201016</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,7 +9011,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,7 +10682,7 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.145412571165</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>108.0710972711171</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>52.86938723563372</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>124.4684662695523</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>52.77080983974793</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>75.39636606717129</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>173.3651261629885</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>48.75693659211572</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24180,7 +24180,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>218.2134127617879</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>64.30500338171987</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>5.528738289026705</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24888,10 +24888,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.4841420758437</v>
+        <v>10.65497486614709</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25134,16 +25134,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>144.1147599158642</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>6.492880535499154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>109.8372645300054</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>203.3308468415238</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,25 +25836,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>109.3966461556265</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>77.39710838614164</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>50.96659166315999</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,25 +26073,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>144.6367173566217</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107741</v>
       </c>
     </row>
     <row r="8">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>954562.9802107742</v>
+        <v>954562.9802107743</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>954562.9802107743</v>
+        <v>954562.9802107742</v>
       </c>
     </row>
     <row r="14">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719628</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719629</v>
+        <v>472099.017671963</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
+        <v>449683.4186983652</v>
+      </c>
+      <c r="F2" t="n">
         <v>449683.4186983653</v>
       </c>
-      <c r="F2" t="n">
-        <v>449683.4186983652</v>
-      </c>
       <c r="G2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983655</v>
       </c>
       <c r="H2" t="n">
         <v>449683.4186983653</v>
       </c>
       <c r="I2" t="n">
-        <v>449683.4186983654</v>
+        <v>449683.4186983653</v>
       </c>
       <c r="J2" t="n">
         <v>449683.4186983653</v>
@@ -26346,16 +26346,16 @@
         <v>449683.4186983653</v>
       </c>
       <c r="M2" t="n">
-        <v>449683.4186983652</v>
+        <v>449683.4186983655</v>
       </c>
       <c r="N2" t="n">
         <v>449683.4186983652</v>
       </c>
       <c r="O2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983652</v>
       </c>
       <c r="P2" t="n">
-        <v>449683.4186983653</v>
+        <v>449683.4186983654</v>
       </c>
     </row>
     <row r="3">
@@ -26426,37 +26426,37 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="F4" t="n">
         <v>36432.48351773396</v>
       </c>
       <c r="G4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="H4" t="n">
+        <v>36432.48351773396</v>
+      </c>
+      <c r="I4" t="n">
         <v>36432.48351773395</v>
       </c>
-      <c r="H4" t="n">
-        <v>36432.48351773397</v>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
+        <v>36432.48351773395</v>
+      </c>
+      <c r="K4" t="n">
+        <v>36432.48351773394</v>
+      </c>
+      <c r="L4" t="n">
         <v>36432.48351773396</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M4" t="n">
         <v>36432.48351773396</v>
       </c>
-      <c r="K4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="L4" t="n">
-        <v>36432.48351773395</v>
-      </c>
-      <c r="M4" t="n">
-        <v>36432.48351773395</v>
-      </c>
       <c r="N4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="P4" t="n">
         <v>36432.48351773396</v>
@@ -26478,7 +26478,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26487,16 +26487,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-384076.6264631191</v>
+        <v>-384076.6264631188</v>
       </c>
       <c r="C6" t="n">
-        <v>205891.2527514255</v>
+        <v>205891.2527514256</v>
       </c>
       <c r="D6" t="n">
         <v>205891.2527514255</v>
       </c>
       <c r="E6" t="n">
-        <v>-204871.0185047031</v>
+        <v>-203993.8863709537</v>
       </c>
       <c r="F6" t="n">
-        <v>320289.017972193</v>
+        <v>321166.1501059426</v>
       </c>
       <c r="G6" t="n">
-        <v>320289.017972193</v>
+        <v>321166.1501059427</v>
       </c>
       <c r="H6" t="n">
-        <v>320289.0179721931</v>
+        <v>321166.1501059426</v>
       </c>
       <c r="I6" t="n">
-        <v>320289.0179721932</v>
+        <v>321166.1501059426</v>
       </c>
       <c r="J6" t="n">
-        <v>143865.7987796002</v>
+        <v>144742.9309133497</v>
       </c>
       <c r="K6" t="n">
-        <v>320289.0179721931</v>
+        <v>321166.1501059426</v>
       </c>
       <c r="L6" t="n">
-        <v>320289.0179721931</v>
+        <v>321166.1501059426</v>
       </c>
       <c r="M6" t="n">
-        <v>185488.0027383559</v>
+        <v>186365.1348721055</v>
       </c>
       <c r="N6" t="n">
-        <v>320289.017972193</v>
+        <v>321166.1501059424</v>
       </c>
       <c r="O6" t="n">
-        <v>320289.0179721931</v>
+        <v>321166.1501059424</v>
       </c>
       <c r="P6" t="n">
-        <v>320289.0179721931</v>
+        <v>321166.1501059427</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26761,10 +26761,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>209.7028375347195</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>279.3323015578577</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27545,22 +27545,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>71.22505211275158</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>13.94035269263892</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>216.7237074798974</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>25.56873457136726</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>127.9179492288476</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>198.2516768029394</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,16 +27858,16 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>78.73551184920507</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>303.6383668238973</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,31 +28010,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.68962877639353</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>10.74592769735793</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35655,7 +35655,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504662</v>
@@ -35743,7 +35743,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
@@ -35980,7 +35980,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,16 +36682,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>598.8335596281419</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,16 +36919,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37390,7 +37390,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,7 +37402,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37630,7 +37630,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>598.8335596281419</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980128</v>
@@ -37639,7 +37639,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504662</v>
@@ -37876,7 +37876,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38019,7 +38019,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
